--- a/files/Pokemon_Gen_1-8.xlsx
+++ b/files/Pokemon_Gen_1-8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Practice\Pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC83F2-1E68-4FA7-8FC7-1EF8D33A9D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347562CD-9A09-45D4-949E-77BFA02606B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4206,11 +4206,11 @@
   <dimension ref="A1:O1027"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="6525" ySplit="1200" topLeftCell="E294" activePane="bottomRight"/>
+      <pane xSplit="6525" ySplit="1200" topLeftCell="E456" activePane="bottomRight"/>
       <selection activeCell="B939" sqref="B939"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
-      <selection pane="bottomRight" activeCell="O300" sqref="O300"/>
+      <selection pane="bottomLeft" activeCell="B457" sqref="B457"/>
+      <selection pane="bottomRight" activeCell="E463" sqref="E463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18052,8 +18052,11 @@
       <c r="N304" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:14">
+      <c r="O304" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15">
       <c r="A305" s="1">
         <v>254</v>
       </c>
@@ -18096,8 +18099,11 @@
       <c r="N305" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:14">
+      <c r="O305" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15">
       <c r="A306" s="1">
         <v>254</v>
       </c>
@@ -18141,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:15">
       <c r="A307" s="1">
         <v>255</v>
       </c>
@@ -18185,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:15">
       <c r="A308" s="1">
         <v>256</v>
       </c>
@@ -18228,8 +18234,11 @@
       <c r="N308" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:14">
+      <c r="O308" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15">
       <c r="A309" s="1">
         <v>257</v>
       </c>
@@ -18272,8 +18281,11 @@
       <c r="N309" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:14">
+      <c r="O309" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
       <c r="A310" s="1">
         <v>257</v>
       </c>
@@ -18316,8 +18328,11 @@
       <c r="N310" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:14">
+      <c r="O310" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15">
       <c r="A311" s="1">
         <v>258</v>
       </c>
@@ -18361,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:15">
       <c r="A312" s="1">
         <v>259</v>
       </c>
@@ -18404,8 +18419,11 @@
       <c r="N312" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:14">
+      <c r="O312" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15">
       <c r="A313" s="1">
         <v>260</v>
       </c>
@@ -18448,8 +18466,11 @@
       <c r="N313" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:14">
+      <c r="O313" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15">
       <c r="A314" s="1">
         <v>260</v>
       </c>
@@ -18492,8 +18513,11 @@
       <c r="N314" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:14">
+      <c r="O314" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15">
       <c r="A315" s="1">
         <v>261</v>
       </c>
@@ -18537,7 +18561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:15">
       <c r="A316" s="1">
         <v>262</v>
       </c>
@@ -18580,8 +18604,11 @@
       <c r="N316" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:14">
+      <c r="O316" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15">
       <c r="A317" s="1">
         <v>263</v>
       </c>
@@ -18625,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:15">
       <c r="A318" s="1">
         <v>263</v>
       </c>
@@ -18669,7 +18696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:15">
       <c r="A319" s="1">
         <v>264</v>
       </c>
@@ -18712,8 +18739,11 @@
       <c r="N319" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:14">
+      <c r="O319" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15">
       <c r="A320" s="1">
         <v>264</v>
       </c>
@@ -18756,8 +18786,11 @@
       <c r="N320" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:14">
+      <c r="O320" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15">
       <c r="A321" s="1">
         <v>265</v>
       </c>
@@ -18801,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:15">
       <c r="A322" s="1">
         <v>266</v>
       </c>
@@ -18844,8 +18877,11 @@
       <c r="N322" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:14">
+      <c r="O322" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15">
       <c r="A323" s="1">
         <v>267</v>
       </c>
@@ -18888,8 +18924,11 @@
       <c r="N323" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:14">
+      <c r="O323" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15">
       <c r="A324" s="1">
         <v>268</v>
       </c>
@@ -18932,8 +18971,11 @@
       <c r="N324" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:14">
+      <c r="O324" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15">
       <c r="A325" s="1">
         <v>269</v>
       </c>
@@ -18976,8 +19018,11 @@
       <c r="N325" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:14">
+      <c r="O325" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15">
       <c r="A326" s="1">
         <v>270</v>
       </c>
@@ -19021,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:15">
       <c r="A327" s="1">
         <v>271</v>
       </c>
@@ -19064,8 +19109,11 @@
       <c r="N327" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:14">
+      <c r="O327" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15">
       <c r="A328" s="1">
         <v>272</v>
       </c>
@@ -19108,8 +19156,11 @@
       <c r="N328" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:14">
+      <c r="O328" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15">
       <c r="A329" s="1">
         <v>273</v>
       </c>
@@ -19153,7 +19204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:15">
       <c r="A330" s="1">
         <v>274</v>
       </c>
@@ -19196,8 +19247,11 @@
       <c r="N330" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:14">
+      <c r="O330" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15">
       <c r="A331" s="1">
         <v>275</v>
       </c>
@@ -19240,8 +19294,11 @@
       <c r="N331" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:14">
+      <c r="O331" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15">
       <c r="A332" s="1">
         <v>276</v>
       </c>
@@ -19285,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:15">
       <c r="A333" s="1">
         <v>277</v>
       </c>
@@ -19328,8 +19385,11 @@
       <c r="N333" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:14">
+      <c r="O333" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15">
       <c r="A334" s="1">
         <v>278</v>
       </c>
@@ -19373,7 +19433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:15">
       <c r="A335" s="1">
         <v>279</v>
       </c>
@@ -19416,8 +19476,11 @@
       <c r="N335" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:14">
+      <c r="O335" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15">
       <c r="A336" s="1">
         <v>280</v>
       </c>
@@ -19461,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:15">
       <c r="A337" s="1">
         <v>281</v>
       </c>
@@ -19504,8 +19567,11 @@
       <c r="N337" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:14">
+      <c r="O337" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15">
       <c r="A338" s="1">
         <v>282</v>
       </c>
@@ -19548,8 +19614,11 @@
       <c r="N338" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:14">
+      <c r="O338" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15">
       <c r="A339" s="1">
         <v>282</v>
       </c>
@@ -19592,8 +19661,11 @@
       <c r="N339" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:14">
+      <c r="O339" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15">
       <c r="A340" s="1">
         <v>283</v>
       </c>
@@ -19637,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:15">
       <c r="A341" s="1">
         <v>284</v>
       </c>
@@ -19680,8 +19752,11 @@
       <c r="N341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:14">
+      <c r="O341" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15">
       <c r="A342" s="1">
         <v>285</v>
       </c>
@@ -19725,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:15">
       <c r="A343" s="1">
         <v>286</v>
       </c>
@@ -19768,8 +19843,11 @@
       <c r="N343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:14">
+      <c r="O343" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15">
       <c r="A344" s="1">
         <v>287</v>
       </c>
@@ -19813,7 +19891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:15">
       <c r="A345" s="1">
         <v>288</v>
       </c>
@@ -19856,8 +19934,11 @@
       <c r="N345" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:14">
+      <c r="O345" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15">
       <c r="A346" s="1">
         <v>289</v>
       </c>
@@ -19900,8 +19981,11 @@
       <c r="N346" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:14">
+      <c r="O346" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15">
       <c r="A347" s="1">
         <v>290</v>
       </c>
@@ -19945,7 +20029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:15">
       <c r="A348" s="1">
         <v>291</v>
       </c>
@@ -19988,8 +20072,11 @@
       <c r="N348" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:14">
+      <c r="O348" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15">
       <c r="A349" s="1">
         <v>292</v>
       </c>
@@ -20032,8 +20119,11 @@
       <c r="N349" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:14">
+      <c r="O349" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15">
       <c r="A350" s="1">
         <v>293</v>
       </c>
@@ -20077,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:15">
       <c r="A351" s="1">
         <v>294</v>
       </c>
@@ -20120,8 +20210,11 @@
       <c r="N351" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:14">
+      <c r="O351" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15">
       <c r="A352" s="1">
         <v>295</v>
       </c>
@@ -20164,8 +20257,11 @@
       <c r="N352" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:14">
+      <c r="O352" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15">
       <c r="A353" s="1">
         <v>296</v>
       </c>
@@ -20209,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:15">
       <c r="A354" s="1">
         <v>297</v>
       </c>
@@ -20252,8 +20348,11 @@
       <c r="N354" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:14">
+      <c r="O354" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15">
       <c r="A355" s="1">
         <v>298</v>
       </c>
@@ -20297,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:15">
       <c r="A356" s="1">
         <v>299</v>
       </c>
@@ -20341,7 +20440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:15">
       <c r="A357" s="1">
         <v>300</v>
       </c>
@@ -20385,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:15">
       <c r="A358" s="1">
         <v>301</v>
       </c>
@@ -20428,8 +20527,11 @@
       <c r="N358" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:14">
+      <c r="O358" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15">
       <c r="A359" s="1">
         <v>302</v>
       </c>
@@ -20473,7 +20575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:15">
       <c r="A360" s="1">
         <v>302</v>
       </c>
@@ -20517,7 +20619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:15">
       <c r="A361" s="1">
         <v>303</v>
       </c>
@@ -20561,7 +20663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:15">
       <c r="A362" s="1">
         <v>303</v>
       </c>
@@ -20605,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:15">
       <c r="A363" s="1">
         <v>304</v>
       </c>
@@ -20649,7 +20751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:15">
       <c r="A364" s="1">
         <v>305</v>
       </c>
@@ -20692,8 +20794,11 @@
       <c r="N364" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:14">
+      <c r="O364" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15">
       <c r="A365" s="1">
         <v>306</v>
       </c>
@@ -20736,8 +20841,11 @@
       <c r="N365" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:14">
+      <c r="O365" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15">
       <c r="A366" s="1">
         <v>306</v>
       </c>
@@ -20780,8 +20888,11 @@
       <c r="N366" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:14">
+      <c r="O366" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15">
       <c r="A367" s="1">
         <v>307</v>
       </c>
@@ -20825,7 +20936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:15">
       <c r="A368" s="1">
         <v>308</v>
       </c>
@@ -20868,8 +20979,11 @@
       <c r="N368" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:14">
+      <c r="O368" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15">
       <c r="A369" s="1">
         <v>308</v>
       </c>
@@ -20912,8 +21026,11 @@
       <c r="N369" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:14">
+      <c r="O369" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15">
       <c r="A370" s="1">
         <v>309</v>
       </c>
@@ -20957,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:15">
       <c r="A371" s="1">
         <v>310</v>
       </c>
@@ -21000,8 +21117,11 @@
       <c r="N371" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:14">
+      <c r="O371" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15">
       <c r="A372" s="1">
         <v>310</v>
       </c>
@@ -21044,8 +21164,11 @@
       <c r="N372" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:14">
+      <c r="O372" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15">
       <c r="A373" s="1">
         <v>311</v>
       </c>
@@ -21089,7 +21212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:15">
       <c r="A374" s="1">
         <v>312</v>
       </c>
@@ -21133,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:15">
       <c r="A375" s="1">
         <v>313</v>
       </c>
@@ -21177,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:15">
       <c r="A376" s="1">
         <v>314</v>
       </c>
@@ -21221,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:15">
       <c r="A377" s="1">
         <v>315</v>
       </c>
@@ -21264,8 +21387,11 @@
       <c r="N377" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:14">
+      <c r="O377" s="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15">
       <c r="A378" s="1">
         <v>316</v>
       </c>
@@ -21309,7 +21435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:15">
       <c r="A379" s="1">
         <v>317</v>
       </c>
@@ -21352,8 +21478,11 @@
       <c r="N379" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:14">
+      <c r="O379" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15">
       <c r="A380" s="1">
         <v>318</v>
       </c>
@@ -21397,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:15">
       <c r="A381" s="1">
         <v>319</v>
       </c>
@@ -21440,8 +21569,11 @@
       <c r="N381" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:14">
+      <c r="O381" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15">
       <c r="A382" s="1">
         <v>319</v>
       </c>
@@ -21484,8 +21616,11 @@
       <c r="N382" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:14">
+      <c r="O382" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15">
       <c r="A383" s="1">
         <v>320</v>
       </c>
@@ -21529,7 +21664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:15">
       <c r="A384" s="1">
         <v>321</v>
       </c>
@@ -21572,8 +21707,11 @@
       <c r="N384" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:14">
+      <c r="O384" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15">
       <c r="A385" s="1">
         <v>322</v>
       </c>
@@ -21617,7 +21755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:15">
       <c r="A386" s="1">
         <v>323</v>
       </c>
@@ -21660,8 +21798,11 @@
       <c r="N386" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:14">
+      <c r="O386" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15">
       <c r="A387" s="1">
         <v>323</v>
       </c>
@@ -21704,8 +21845,11 @@
       <c r="N387" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:14">
+      <c r="O387" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15">
       <c r="A388" s="1">
         <v>324</v>
       </c>
@@ -21749,7 +21893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:15">
       <c r="A389" s="1">
         <v>325</v>
       </c>
@@ -21793,7 +21937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:15">
       <c r="A390" s="1">
         <v>326</v>
       </c>
@@ -21836,8 +21980,11 @@
       <c r="N390" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:14">
+      <c r="O390" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15">
       <c r="A391" s="1">
         <v>327</v>
       </c>
@@ -21881,7 +22028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:15">
       <c r="A392" s="1">
         <v>328</v>
       </c>
@@ -21925,7 +22072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:15">
       <c r="A393" s="1">
         <v>329</v>
       </c>
@@ -21968,8 +22115,11 @@
       <c r="N393" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:14">
+      <c r="O393" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15">
       <c r="A394" s="1">
         <v>330</v>
       </c>
@@ -22012,8 +22162,11 @@
       <c r="N394" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:14">
+      <c r="O394" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15">
       <c r="A395" s="1">
         <v>331</v>
       </c>
@@ -22057,7 +22210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:15">
       <c r="A396" s="1">
         <v>332</v>
       </c>
@@ -22100,8 +22253,11 @@
       <c r="N396" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:14">
+      <c r="O396" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15">
       <c r="A397" s="1">
         <v>333</v>
       </c>
@@ -22145,7 +22301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:15">
       <c r="A398" s="1">
         <v>334</v>
       </c>
@@ -22188,8 +22344,11 @@
       <c r="N398" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:14">
+      <c r="O398" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15">
       <c r="A399" s="1">
         <v>334</v>
       </c>
@@ -22232,8 +22391,11 @@
       <c r="N399" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:14">
+      <c r="O399" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15">
       <c r="A400" s="1">
         <v>335</v>
       </c>
@@ -22277,7 +22439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:15">
       <c r="A401" s="1">
         <v>336</v>
       </c>
@@ -22321,7 +22483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:15">
       <c r="A402" s="1">
         <v>337</v>
       </c>
@@ -22365,7 +22527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:15">
       <c r="A403" s="1">
         <v>338</v>
       </c>
@@ -22409,7 +22571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:15">
       <c r="A404" s="1">
         <v>339</v>
       </c>
@@ -22453,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:15">
       <c r="A405" s="1">
         <v>340</v>
       </c>
@@ -22496,8 +22658,11 @@
       <c r="N405" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:14">
+      <c r="O405" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15">
       <c r="A406" s="1">
         <v>341</v>
       </c>
@@ -22541,7 +22706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:15">
       <c r="A407" s="1">
         <v>342</v>
       </c>
@@ -22584,8 +22749,11 @@
       <c r="N407" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:14">
+      <c r="O407" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15">
       <c r="A408" s="1">
         <v>343</v>
       </c>
@@ -22629,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:15">
       <c r="A409" s="1">
         <v>344</v>
       </c>
@@ -22672,8 +22840,11 @@
       <c r="N409" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:14">
+      <c r="O409" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15">
       <c r="A410" s="1">
         <v>345</v>
       </c>
@@ -22717,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:15">
       <c r="A411" s="1">
         <v>346</v>
       </c>
@@ -22760,8 +22931,11 @@
       <c r="N411" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:14">
+      <c r="O411" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15">
       <c r="A412" s="1">
         <v>347</v>
       </c>
@@ -22805,7 +22979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:15">
       <c r="A413" s="1">
         <v>348</v>
       </c>
@@ -22848,8 +23022,11 @@
       <c r="N413" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:14">
+      <c r="O413" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15">
       <c r="A414" s="1">
         <v>349</v>
       </c>
@@ -22893,7 +23070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:15">
       <c r="A415" s="1">
         <v>350</v>
       </c>
@@ -22936,8 +23113,11 @@
       <c r="N415" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:14">
+      <c r="O415" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15">
       <c r="A416" s="1">
         <v>351</v>
       </c>
@@ -22981,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:15">
       <c r="A417" s="1">
         <v>351</v>
       </c>
@@ -23025,7 +23205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:15">
       <c r="A418" s="1">
         <v>351</v>
       </c>
@@ -23069,7 +23249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:15">
       <c r="A419" s="1">
         <v>351</v>
       </c>
@@ -23113,7 +23293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:15">
       <c r="A420" s="1">
         <v>352</v>
       </c>
@@ -23157,7 +23337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:15">
       <c r="A421" s="1">
         <v>353</v>
       </c>
@@ -23201,7 +23381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:15">
       <c r="A422" s="1">
         <v>354</v>
       </c>
@@ -23244,8 +23424,11 @@
       <c r="N422" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:14">
+      <c r="O422" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15">
       <c r="A423" s="1">
         <v>354</v>
       </c>
@@ -23288,8 +23471,11 @@
       <c r="N423" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:14">
+      <c r="O423" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15">
       <c r="A424" s="1">
         <v>355</v>
       </c>
@@ -23333,7 +23519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:15">
       <c r="A425" s="1">
         <v>356</v>
       </c>
@@ -23376,8 +23562,11 @@
       <c r="N425" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:14">
+      <c r="O425" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15">
       <c r="A426" s="1">
         <v>357</v>
       </c>
@@ -23421,7 +23610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:15">
       <c r="A427" s="1">
         <v>358</v>
       </c>
@@ -23464,8 +23653,11 @@
       <c r="N427" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:14">
+      <c r="O427" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15">
       <c r="A428" s="1">
         <v>359</v>
       </c>
@@ -23509,7 +23701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:15">
       <c r="A429" s="1">
         <v>359</v>
       </c>
@@ -23553,7 +23745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:15">
       <c r="A430" s="1">
         <v>360</v>
       </c>
@@ -23597,7 +23789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:15">
       <c r="A431" s="1">
         <v>361</v>
       </c>
@@ -23641,7 +23833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:15">
       <c r="A432" s="1">
         <v>362</v>
       </c>
@@ -23684,8 +23876,11 @@
       <c r="N432" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:14">
+      <c r="O432" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15">
       <c r="A433" s="1">
         <v>362</v>
       </c>
@@ -23728,8 +23923,11 @@
       <c r="N433" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:14">
+      <c r="O433" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15">
       <c r="A434" s="1">
         <v>363</v>
       </c>
@@ -23773,7 +23971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:15">
       <c r="A435" s="1">
         <v>364</v>
       </c>
@@ -23816,8 +24014,11 @@
       <c r="N435" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:14">
+      <c r="O435" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15">
       <c r="A436" s="1">
         <v>365</v>
       </c>
@@ -23860,8 +24061,11 @@
       <c r="N436" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:14">
+      <c r="O436" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15">
       <c r="A437" s="1">
         <v>366</v>
       </c>
@@ -23905,7 +24109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:15">
       <c r="A438" s="1">
         <v>367</v>
       </c>
@@ -23948,8 +24152,11 @@
       <c r="N438" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:14">
+      <c r="O438" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15">
       <c r="A439" s="1">
         <v>368</v>
       </c>
@@ -23992,8 +24199,11 @@
       <c r="N439" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:14">
+      <c r="O439" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15">
       <c r="A440" s="1">
         <v>369</v>
       </c>
@@ -24037,7 +24247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:15">
       <c r="A441" s="1">
         <v>370</v>
       </c>
@@ -24081,7 +24291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:15">
       <c r="A442" s="1">
         <v>371</v>
       </c>
@@ -24125,7 +24335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:15">
       <c r="A443" s="1">
         <v>372</v>
       </c>
@@ -24168,8 +24378,11 @@
       <c r="N443" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:14">
+      <c r="O443" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15">
       <c r="A444" s="1">
         <v>373</v>
       </c>
@@ -24212,8 +24425,11 @@
       <c r="N444" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:14">
+      <c r="O444" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15">
       <c r="A445" s="1">
         <v>373</v>
       </c>
@@ -24256,8 +24472,11 @@
       <c r="N445" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:14">
+      <c r="O445" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15">
       <c r="A446" s="1">
         <v>374</v>
       </c>
@@ -24301,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:15">
       <c r="A447" s="1">
         <v>375</v>
       </c>
@@ -24344,8 +24563,11 @@
       <c r="N447" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:14">
+      <c r="O447" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15">
       <c r="A448" s="1">
         <v>376</v>
       </c>
@@ -24388,8 +24610,11 @@
       <c r="N448" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:14">
+      <c r="O448" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15">
       <c r="A449" s="1">
         <v>376</v>
       </c>
@@ -24432,8 +24657,11 @@
       <c r="N449" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:14">
+      <c r="O449" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15">
       <c r="A450" s="1">
         <v>377</v>
       </c>
@@ -24477,7 +24705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:15">
       <c r="A451" s="1">
         <v>378</v>
       </c>
@@ -24521,7 +24749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:15">
       <c r="A452" s="1">
         <v>379</v>
       </c>
@@ -24565,7 +24793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:15">
       <c r="A453" s="1">
         <v>380</v>
       </c>
@@ -24609,7 +24837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:15">
       <c r="A454" s="1">
         <v>380</v>
       </c>
@@ -24653,7 +24881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:15">
       <c r="A455" s="1">
         <v>381</v>
       </c>
@@ -24697,7 +24925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:15">
       <c r="A456" s="1">
         <v>381</v>
       </c>
@@ -24741,7 +24969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:15">
       <c r="A457" s="1">
         <v>382</v>
       </c>
@@ -24785,7 +25013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:15">
       <c r="A458" s="1">
         <v>382</v>
       </c>
@@ -24829,7 +25057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:15">
       <c r="A459" s="1">
         <v>383</v>
       </c>
@@ -24873,7 +25101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:15">
       <c r="A460" s="1">
         <v>383</v>
       </c>
@@ -24917,7 +25145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:15">
       <c r="A461" s="1">
         <v>384</v>
       </c>
@@ -24961,7 +25189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:15">
       <c r="A462" s="1">
         <v>384</v>
       </c>
@@ -25005,7 +25233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:15">
       <c r="A463" s="1">
         <v>385</v>
       </c>
@@ -25049,7 +25277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:15">
       <c r="A464" s="1">
         <v>386</v>
       </c>
@@ -25797,7 +26025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:15">
       <c r="A481" s="1">
         <v>400</v>
       </c>
@@ -25841,7 +26069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:15">
       <c r="A482" s="1">
         <v>401</v>
       </c>
@@ -25885,7 +26113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:15">
       <c r="A483" s="1">
         <v>402</v>
       </c>
@@ -25929,7 +26157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:15">
       <c r="A484" s="1">
         <v>403</v>
       </c>
@@ -25973,7 +26201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:15">
       <c r="A485" s="1">
         <v>404</v>
       </c>
@@ -26017,7 +26245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:15">
       <c r="A486" s="1">
         <v>405</v>
       </c>
@@ -26061,7 +26289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:15">
       <c r="A487" s="1">
         <v>406</v>
       </c>
@@ -26105,7 +26333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:15">
       <c r="A488" s="1">
         <v>407</v>
       </c>
@@ -26148,8 +26376,11 @@
       <c r="N488" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:14">
+      <c r="O488" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15">
       <c r="A489" s="1">
         <v>408</v>
       </c>
@@ -26193,7 +26424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:15">
       <c r="A490" s="1">
         <v>409</v>
       </c>
@@ -26237,7 +26468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:15">
       <c r="A491" s="1">
         <v>410</v>
       </c>
@@ -26281,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:15">
       <c r="A492" s="1">
         <v>411</v>
       </c>
@@ -26325,7 +26556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:15">
       <c r="A493" s="1">
         <v>412</v>
       </c>
@@ -26369,7 +26600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:15">
       <c r="A494" s="1">
         <v>413</v>
       </c>
@@ -26413,7 +26644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:15">
       <c r="A495" s="1">
         <v>413</v>
       </c>
@@ -26457,7 +26688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:15">
       <c r="A496" s="1">
         <v>413</v>
       </c>
@@ -29440,6 +29671,9 @@
       <c r="N562" s="1">
         <v>0</v>
       </c>
+      <c r="O562" s="1">
+        <v>281</v>
+      </c>
     </row>
     <row r="563" spans="1:15">
       <c r="A563" s="1">
@@ -29484,6 +29718,9 @@
       <c r="N563" s="1">
         <v>0</v>
       </c>
+      <c r="O563" s="1">
+        <v>281</v>
+      </c>
     </row>
     <row r="564" spans="1:15">
       <c r="A564" s="1">
@@ -29572,6 +29809,9 @@
       <c r="N565" s="1">
         <v>0</v>
       </c>
+      <c r="O565" s="1">
+        <v>356</v>
+      </c>
     </row>
     <row r="566" spans="1:15">
       <c r="A566" s="1">
@@ -29615,6 +29855,9 @@
       </c>
       <c r="N566" s="1">
         <v>0</v>
+      </c>
+      <c r="O566" s="1">
+        <v>361</v>
       </c>
     </row>
     <row r="567" spans="1:15">
